--- a/my-app/regionseng/11/demography/death by age and sex.xlsx
+++ b/my-app/regionseng/11/demography/death by age and sex.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="45" windowWidth="24030" windowHeight="12270"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="25380" windowHeight="11670"/>
   </bookViews>
   <sheets>
-    <sheet name="Mtskheta-Mtianeti" sheetId="2" r:id="rId1"/>
+    <sheet name="Tbilisi" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -76,16 +76,19 @@
     <t>Age</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Both sexes</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Demography</t>
   </si>
   <si>
-    <t>Number of Deaths by Age and Sex, Mtskheta-Mtianeti</t>
+    <t>Number of Deaths by Age and Sex, Tbilisi</t>
+  </si>
+  <si>
+    <t>(person)</t>
   </si>
   <si>
     <t>Sex</t>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Females</t>
-  </si>
-  <si>
-    <t>(persons)</t>
   </si>
 </sst>
 </file>
@@ -160,6 +160,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -169,12 +175,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -202,13 +202,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -218,7 +218,33 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -277,17 +303,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -301,30 +316,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -401,12 +399,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -414,8 +408,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -445,7 +443,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -454,7 +452,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -467,7 +469,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -479,34 +481,34 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="13" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="12" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="14" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="14" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="16" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="17" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="20" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="20" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="21" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,47 +517,51 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_2011" xfId="8"/>
+    <cellStyle name="Normal_2011" xfId="11"/>
     <cellStyle name="style1360565008690" xfId="1"/>
     <cellStyle name="style1360565008924" xfId="2"/>
     <cellStyle name="style1360565009377" xfId="3"/>
     <cellStyle name="style1360565009533" xfId="4"/>
-    <cellStyle name="style1360565011674" xfId="5"/>
-    <cellStyle name="style1360565011815" xfId="6"/>
-    <cellStyle name="style1360565011940" xfId="7"/>
+    <cellStyle name="style1360565011127" xfId="5"/>
+    <cellStyle name="style1360565011408" xfId="6"/>
+    <cellStyle name="style1360565011549" xfId="7"/>
+    <cellStyle name="style1360565011674" xfId="8"/>
+    <cellStyle name="style1360565011815" xfId="9"/>
+    <cellStyle name="style1360565011940" xfId="10"/>
+    <cellStyle name="style1360565012799" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -863,7 +869,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
     <col min="3" max="21" width="9.140625" style="3"/>
     <col min="22" max="22" width="10.42578125" style="3" customWidth="1"/>
@@ -892,7 +898,7 @@
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2"/>
     </row>
@@ -900,7 +906,7 @@
       <c r="A6" s="21"/>
       <c r="B6" s="23"/>
       <c r="C6" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>19</v>
@@ -926,7 +932,7 @@
     </row>
     <row r="7" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>18</v>
@@ -992,1602 +998,1602 @@
     </row>
     <row r="8" spans="1:22" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="18">
         <v>2014</v>
       </c>
       <c r="C8" s="9">
-        <v>1378</v>
+        <v>12403</v>
       </c>
       <c r="D8" s="10">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="E8" s="10">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F8" s="10">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G8" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H8" s="10">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I8" s="10">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="J8" s="10">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="K8" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="L8" s="10">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="M8" s="10">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="N8" s="10">
-        <v>48</v>
+        <v>385</v>
       </c>
       <c r="O8" s="10">
-        <v>67</v>
+        <v>592</v>
       </c>
       <c r="P8" s="10">
-        <v>72</v>
+        <v>771</v>
       </c>
       <c r="Q8" s="10">
-        <v>99</v>
+        <v>986</v>
       </c>
       <c r="R8" s="10">
-        <v>84</v>
+        <v>1010</v>
       </c>
       <c r="S8" s="10">
-        <v>134</v>
+        <v>1316</v>
       </c>
       <c r="T8" s="10">
-        <v>242</v>
+        <v>2243</v>
       </c>
       <c r="U8" s="10">
-        <v>249</v>
+        <v>1913</v>
       </c>
       <c r="V8" s="11">
-        <v>287</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="12">
-        <v>731</v>
+        <v>6043</v>
       </c>
       <c r="D9" s="13">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E9" s="13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F9" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G9" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" s="13">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I9" s="13">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="J9" s="13">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="K9" s="13">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="L9" s="13">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="M9" s="13">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="N9" s="13">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="O9" s="13">
-        <v>51</v>
+        <v>434</v>
       </c>
       <c r="P9" s="13">
-        <v>51</v>
+        <v>530</v>
       </c>
       <c r="Q9" s="13">
+        <v>652</v>
+      </c>
+      <c r="R9" s="13">
+        <v>585</v>
+      </c>
+      <c r="S9" s="13">
+        <v>671</v>
+      </c>
+      <c r="T9" s="13">
+        <v>986</v>
+      </c>
+      <c r="U9" s="13">
+        <v>708</v>
+      </c>
+      <c r="V9" s="14">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="12">
+        <v>6360</v>
+      </c>
+      <c r="D10" s="13">
         <v>71</v>
       </c>
-      <c r="R9" s="13">
-        <v>55</v>
-      </c>
-      <c r="S9" s="13">
-        <v>81</v>
-      </c>
-      <c r="T9" s="13">
-        <v>124</v>
-      </c>
-      <c r="U9" s="13">
-        <v>108</v>
-      </c>
-      <c r="V9" s="14">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="15">
-        <v>647</v>
-      </c>
-      <c r="D10" s="16">
-        <v>8</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
-        <v>1</v>
-      </c>
-      <c r="K10" s="16">
+      <c r="E10" s="13">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13">
+        <v>7</v>
+      </c>
+      <c r="G10" s="13">
         <v>4</v>
       </c>
-      <c r="L10" s="16">
-        <v>4</v>
-      </c>
-      <c r="M10" s="16">
-        <v>3</v>
-      </c>
-      <c r="N10" s="16">
-        <v>9</v>
-      </c>
-      <c r="O10" s="16">
-        <v>16</v>
-      </c>
-      <c r="P10" s="16">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>28</v>
-      </c>
-      <c r="R10" s="16">
-        <v>29</v>
-      </c>
-      <c r="S10" s="16">
-        <v>53</v>
-      </c>
-      <c r="T10" s="16">
-        <v>118</v>
-      </c>
-      <c r="U10" s="16">
-        <v>141</v>
-      </c>
-      <c r="V10" s="17">
-        <v>211</v>
+      <c r="H10" s="13">
+        <v>12</v>
+      </c>
+      <c r="I10" s="13">
+        <v>14</v>
+      </c>
+      <c r="J10" s="13">
+        <v>19</v>
+      </c>
+      <c r="K10" s="13">
+        <v>25</v>
+      </c>
+      <c r="L10" s="13">
+        <v>48</v>
+      </c>
+      <c r="M10" s="13">
+        <v>57</v>
+      </c>
+      <c r="N10" s="13">
+        <v>121</v>
+      </c>
+      <c r="O10" s="13">
+        <v>158</v>
+      </c>
+      <c r="P10" s="13">
+        <v>241</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>334</v>
+      </c>
+      <c r="R10" s="13">
+        <v>425</v>
+      </c>
+      <c r="S10" s="13">
+        <v>645</v>
+      </c>
+      <c r="T10" s="13">
+        <v>1257</v>
+      </c>
+      <c r="U10" s="13">
+        <v>1205</v>
+      </c>
+      <c r="V10" s="14">
+        <v>1707</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="18">
         <v>2015</v>
       </c>
       <c r="C11" s="9">
-        <v>1464</v>
+        <v>12377</v>
       </c>
       <c r="D11" s="10">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="E11" s="10">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F11" s="10">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G11" s="10">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H11" s="10">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="I11" s="10">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="J11" s="10">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="K11" s="10">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="L11" s="10">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="M11" s="10">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="N11" s="10">
-        <v>36</v>
+        <v>365</v>
       </c>
       <c r="O11" s="10">
-        <v>57</v>
+        <v>592</v>
       </c>
       <c r="P11" s="10">
-        <v>77</v>
+        <v>815</v>
       </c>
       <c r="Q11" s="10">
-        <v>91</v>
+        <v>985</v>
       </c>
       <c r="R11" s="10">
-        <v>126</v>
+        <v>1120</v>
       </c>
       <c r="S11" s="10">
-        <v>147</v>
+        <v>1170</v>
       </c>
       <c r="T11" s="10">
-        <v>275</v>
+        <v>2167</v>
       </c>
       <c r="U11" s="10">
-        <v>275</v>
+        <v>1890</v>
       </c>
       <c r="V11" s="11">
-        <v>295</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="12">
-        <v>796</v>
+        <v>6207</v>
       </c>
       <c r="D12" s="13">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E12" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F12" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G12" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H12" s="13">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I12" s="13">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="J12" s="13">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="K12" s="13">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="L12" s="13">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="M12" s="13">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="N12" s="13">
-        <v>28</v>
+        <v>269</v>
       </c>
       <c r="O12" s="13">
-        <v>46</v>
+        <v>427</v>
       </c>
       <c r="P12" s="13">
-        <v>59</v>
+        <v>562</v>
       </c>
       <c r="Q12" s="13">
-        <v>69</v>
+        <v>659</v>
       </c>
       <c r="R12" s="13">
-        <v>76</v>
+        <v>665</v>
       </c>
       <c r="S12" s="13">
-        <v>81</v>
+        <v>620</v>
       </c>
       <c r="T12" s="13">
-        <v>142</v>
+        <v>1001</v>
       </c>
       <c r="U12" s="13">
-        <v>133</v>
+        <v>722</v>
       </c>
       <c r="V12" s="14">
-        <v>101</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="15">
-        <v>668</v>
+        <v>6170</v>
       </c>
       <c r="D13" s="16">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E13" s="16">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F13" s="16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G13" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H13" s="16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I13" s="16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J13" s="16">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K13" s="16">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L13" s="16">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="M13" s="16">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="N13" s="16">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="O13" s="16">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="P13" s="16">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="Q13" s="16">
-        <v>22</v>
+        <v>326</v>
       </c>
       <c r="R13" s="16">
-        <v>50</v>
+        <v>455</v>
       </c>
       <c r="S13" s="16">
-        <v>66</v>
+        <v>550</v>
       </c>
       <c r="T13" s="16">
-        <v>133</v>
+        <v>1166</v>
       </c>
       <c r="U13" s="16">
-        <v>142</v>
+        <v>1168</v>
       </c>
       <c r="V13" s="17">
-        <v>194</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="18">
         <v>2016</v>
       </c>
       <c r="C14" s="9">
-        <v>1416</v>
+        <v>12720</v>
       </c>
       <c r="D14" s="10">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E14" s="10">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F14" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G14" s="10">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H14" s="10">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I14" s="10">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J14" s="10">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="K14" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L14" s="10">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="M14" s="10">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="N14" s="10">
-        <v>46</v>
+        <v>333</v>
       </c>
       <c r="O14" s="10">
-        <v>66</v>
+        <v>568</v>
       </c>
       <c r="P14" s="10">
-        <v>69</v>
+        <v>832</v>
       </c>
       <c r="Q14" s="10">
-        <v>82</v>
+        <v>1019</v>
       </c>
       <c r="R14" s="10">
-        <v>103</v>
+        <v>1261</v>
       </c>
       <c r="S14" s="10">
-        <v>107</v>
+        <v>1003</v>
       </c>
       <c r="T14" s="10">
-        <v>277</v>
+        <v>2294</v>
       </c>
       <c r="U14" s="10">
-        <v>266</v>
+        <v>2036</v>
       </c>
       <c r="V14" s="11">
-        <v>316</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="12">
-        <v>780</v>
+        <v>6320</v>
       </c>
       <c r="D15" s="13">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="E15" s="13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F15" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15" s="13">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I15" s="13">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J15" s="13">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="K15" s="13">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="L15" s="13">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="M15" s="13">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="N15" s="13">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="O15" s="13">
-        <v>55</v>
+        <v>405</v>
       </c>
       <c r="P15" s="13">
-        <v>49</v>
+        <v>552</v>
       </c>
       <c r="Q15" s="13">
-        <v>64</v>
+        <v>660</v>
       </c>
       <c r="R15" s="13">
-        <v>78</v>
+        <v>750</v>
       </c>
       <c r="S15" s="13">
-        <v>60</v>
+        <v>561</v>
       </c>
       <c r="T15" s="13">
-        <v>142</v>
+        <v>1039</v>
       </c>
       <c r="U15" s="13">
-        <v>120</v>
+        <v>769</v>
       </c>
       <c r="V15" s="14">
-        <v>108</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="15">
-        <v>636</v>
+        <v>6400</v>
       </c>
       <c r="D16" s="16">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="E16" s="16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F16" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H16" s="16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I16" s="16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16" s="16">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K16" s="16">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L16" s="16">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="M16" s="16">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="N16" s="16">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="O16" s="16">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="P16" s="16">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="16">
-        <v>18</v>
+        <v>359</v>
       </c>
       <c r="R16" s="16">
-        <v>25</v>
+        <v>511</v>
       </c>
       <c r="S16" s="16">
-        <v>47</v>
+        <v>442</v>
       </c>
       <c r="T16" s="16">
-        <v>135</v>
+        <v>1255</v>
       </c>
       <c r="U16" s="16">
-        <v>146</v>
+        <v>1267</v>
       </c>
       <c r="V16" s="17">
-        <v>208</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="18">
         <v>2017</v>
       </c>
       <c r="C17" s="9">
-        <v>1370</v>
+        <v>11976</v>
       </c>
       <c r="D17" s="10">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="E17" s="10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F17" s="10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G17" s="10">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H17" s="10">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I17" s="10">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="J17" s="10">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="K17" s="10">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="L17" s="10">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="M17" s="10">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="N17" s="10">
-        <v>34</v>
+        <v>338</v>
       </c>
       <c r="O17" s="10">
-        <v>56</v>
+        <v>475</v>
       </c>
       <c r="P17" s="10">
-        <v>69</v>
+        <v>757</v>
       </c>
       <c r="Q17" s="10">
-        <v>101</v>
+        <v>911</v>
       </c>
       <c r="R17" s="10">
-        <v>106</v>
+        <v>1172</v>
       </c>
       <c r="S17" s="10">
-        <v>105</v>
+        <v>979</v>
       </c>
       <c r="T17" s="10">
-        <v>255</v>
+        <v>2022</v>
       </c>
       <c r="U17" s="10">
-        <v>255</v>
+        <v>2004</v>
       </c>
       <c r="V17" s="11">
-        <v>306</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="12">
-        <v>744</v>
+        <v>5912</v>
       </c>
       <c r="D18" s="13">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="E18" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F18" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18" s="13">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H18" s="13">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I18" s="13">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="J18" s="13">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="K18" s="13">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="L18" s="13">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="M18" s="13">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="N18" s="13">
-        <v>27</v>
+        <v>245</v>
       </c>
       <c r="O18" s="13">
-        <v>50</v>
+        <v>328</v>
       </c>
       <c r="P18" s="13">
-        <v>51</v>
+        <v>539</v>
       </c>
       <c r="Q18" s="13">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="R18" s="13">
-        <v>78</v>
+        <v>750</v>
       </c>
       <c r="S18" s="13">
-        <v>56</v>
+        <v>565</v>
       </c>
       <c r="T18" s="13">
-        <v>138</v>
+        <v>902</v>
       </c>
       <c r="U18" s="13">
-        <v>111</v>
+        <v>767</v>
       </c>
       <c r="V18" s="14">
-        <v>95</v>
+        <v>687</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="15">
-        <v>626</v>
+        <v>6064</v>
       </c>
       <c r="D19" s="16">
+        <v>53</v>
+      </c>
+      <c r="E19" s="16">
+        <v>5</v>
+      </c>
+      <c r="F19" s="16">
+        <v>6</v>
+      </c>
+      <c r="G19" s="16">
+        <v>6</v>
+      </c>
+      <c r="H19" s="16">
         <v>7</v>
       </c>
-      <c r="E19" s="16">
-        <v>3</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
-        <v>1</v>
-      </c>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
       <c r="I19" s="16">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J19" s="16">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K19" s="16">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="L19" s="16">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="M19" s="16">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="N19" s="16">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="O19" s="16">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="P19" s="16">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="16">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="R19" s="16">
-        <v>28</v>
+        <v>422</v>
       </c>
       <c r="S19" s="16">
-        <v>49</v>
+        <v>414</v>
       </c>
       <c r="T19" s="16">
-        <v>117</v>
+        <v>1120</v>
       </c>
       <c r="U19" s="16">
-        <v>144</v>
+        <v>1237</v>
       </c>
       <c r="V19" s="17">
-        <v>211</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="18">
         <v>2018</v>
       </c>
       <c r="C20" s="9">
-        <v>1329</v>
+        <v>12122</v>
       </c>
       <c r="D20" s="10">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="E20" s="10">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F20" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G20" s="10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H20" s="10">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I20" s="10">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="J20" s="10">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="K20" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="L20" s="10">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="M20" s="10">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="N20" s="10">
-        <v>36</v>
+        <v>321</v>
       </c>
       <c r="O20" s="10">
-        <v>55</v>
+        <v>494</v>
       </c>
       <c r="P20" s="10">
-        <v>74</v>
+        <v>832</v>
       </c>
       <c r="Q20" s="10">
-        <v>90</v>
+        <v>958</v>
       </c>
       <c r="R20" s="10">
-        <v>117</v>
+        <v>1156</v>
       </c>
       <c r="S20" s="10">
-        <v>117</v>
+        <v>1053</v>
       </c>
       <c r="T20" s="10">
-        <v>215</v>
+        <v>1818</v>
       </c>
       <c r="U20" s="10">
-        <v>238</v>
+        <v>2101</v>
       </c>
       <c r="V20" s="11">
-        <v>325</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="12">
-        <v>716</v>
+        <v>5965</v>
       </c>
       <c r="D21" s="13">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="E21" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F21" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G21" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H21" s="13">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I21" s="13">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="J21" s="13">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="K21" s="13">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="L21" s="13">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="M21" s="13">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="N21" s="13">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="O21" s="13">
-        <v>44</v>
+        <v>366</v>
       </c>
       <c r="P21" s="13">
-        <v>60</v>
+        <v>586</v>
       </c>
       <c r="Q21" s="13">
-        <v>62</v>
+        <v>623</v>
       </c>
       <c r="R21" s="13">
-        <v>84</v>
+        <v>707</v>
       </c>
       <c r="S21" s="13">
-        <v>72</v>
+        <v>573</v>
       </c>
       <c r="T21" s="13">
-        <v>110</v>
+        <v>792</v>
       </c>
       <c r="U21" s="13">
-        <v>101</v>
+        <v>793</v>
       </c>
       <c r="V21" s="14">
-        <v>105</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="15">
-        <v>613</v>
+        <v>6157</v>
       </c>
       <c r="D22" s="16">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E22" s="16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F22" s="16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G22" s="16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H22" s="16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I22" s="16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J22" s="16">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K22" s="16">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="L22" s="16">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M22" s="16">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="N22" s="16">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="O22" s="16">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="P22" s="16">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="16">
-        <v>28</v>
+        <v>335</v>
       </c>
       <c r="R22" s="16">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="S22" s="16">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="T22" s="16">
-        <v>105</v>
+        <v>1026</v>
       </c>
       <c r="U22" s="16">
-        <v>137</v>
+        <v>1308</v>
       </c>
       <c r="V22" s="17">
-        <v>220</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="18">
         <v>2019</v>
       </c>
       <c r="C23" s="9">
-        <v>1311</v>
+        <v>12549</v>
       </c>
       <c r="D23" s="10">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="E23" s="10">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F23" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G23" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H23" s="10">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I23" s="10">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="J23" s="10">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="K23" s="10">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="L23" s="10">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="M23" s="10">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="N23" s="10">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="O23" s="10">
-        <v>46</v>
+        <v>479</v>
       </c>
       <c r="P23" s="10">
-        <v>86</v>
+        <v>841</v>
       </c>
       <c r="Q23" s="10">
-        <v>82</v>
+        <v>1013</v>
       </c>
       <c r="R23" s="10">
-        <v>107</v>
+        <v>1210</v>
       </c>
       <c r="S23" s="10">
-        <v>87</v>
+        <v>1278</v>
       </c>
       <c r="T23" s="10">
-        <v>182</v>
+        <v>1652</v>
       </c>
       <c r="U23" s="10">
-        <v>296</v>
+        <v>2383</v>
       </c>
       <c r="V23" s="11">
-        <v>313</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="12">
-        <v>709</v>
+        <v>6180</v>
       </c>
       <c r="D24" s="13">
+        <v>65</v>
+      </c>
+      <c r="E24" s="13">
+        <v>10</v>
+      </c>
+      <c r="F24" s="13">
         <v>3</v>
       </c>
-      <c r="E24" s="13">
-        <v>1</v>
-      </c>
-      <c r="F24" s="13">
-        <v>0</v>
-      </c>
       <c r="G24" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H24" s="13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I24" s="13">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J24" s="13">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="K24" s="13">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="L24" s="13">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="M24" s="13">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="N24" s="13">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="O24" s="13">
-        <v>39</v>
+        <v>347</v>
       </c>
       <c r="P24" s="13">
-        <v>67</v>
+        <v>572</v>
       </c>
       <c r="Q24" s="13">
-        <v>60</v>
+        <v>691</v>
       </c>
       <c r="R24" s="13">
-        <v>65</v>
+        <v>711</v>
       </c>
       <c r="S24" s="13">
-        <v>63</v>
+        <v>681</v>
       </c>
       <c r="T24" s="13">
-        <v>91</v>
+        <v>761</v>
       </c>
       <c r="U24" s="13">
-        <v>131</v>
+        <v>904</v>
       </c>
       <c r="V24" s="14">
-        <v>111</v>
+        <v>755</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="15">
-        <v>602</v>
+        <v>6369</v>
       </c>
       <c r="D25" s="16">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E25" s="16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F25" s="16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G25" s="16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H25" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25" s="16">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J25" s="16">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K25" s="16">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L25" s="16">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="M25" s="16">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="N25" s="16">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="O25" s="16">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="P25" s="16">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="Q25" s="16">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="R25" s="16">
-        <v>42</v>
+        <v>499</v>
       </c>
       <c r="S25" s="16">
-        <v>24</v>
+        <v>597</v>
       </c>
       <c r="T25" s="16">
-        <v>91</v>
+        <v>891</v>
       </c>
       <c r="U25" s="16">
-        <v>165</v>
+        <v>1479</v>
       </c>
       <c r="V25" s="17">
-        <v>202</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="26" spans="1:22" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" s="18">
         <v>2020</v>
       </c>
       <c r="C26" s="9">
-        <v>1409</v>
+        <v>13878</v>
       </c>
       <c r="D26" s="10">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="E26" s="10">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F26" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G26" s="10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H26" s="10">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I26" s="10">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="J26" s="10">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="K26" s="10">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="L26" s="10">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="M26" s="10">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="N26" s="10">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="O26" s="10">
-        <v>56</v>
+        <v>471</v>
       </c>
       <c r="P26" s="10">
-        <v>92</v>
+        <v>835</v>
       </c>
       <c r="Q26" s="10">
-        <v>117</v>
+        <v>1183</v>
       </c>
       <c r="R26" s="10">
-        <v>113</v>
+        <v>1400</v>
       </c>
       <c r="S26" s="10">
-        <v>158</v>
+        <v>1585</v>
       </c>
       <c r="T26" s="10">
-        <v>146</v>
+        <v>1566</v>
       </c>
       <c r="U26" s="10">
-        <v>303</v>
+        <v>2798</v>
       </c>
       <c r="V26" s="11">
-        <v>317</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="12">
-        <v>771</v>
+        <v>6891</v>
       </c>
       <c r="D27" s="13">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="E27" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F27" s="13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H27" s="13">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I27" s="13">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="J27" s="13">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="K27" s="13">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="L27" s="13">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="M27" s="13">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="N27" s="13">
-        <v>24</v>
+        <v>247</v>
       </c>
       <c r="O27" s="13">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="P27" s="13">
-        <v>75</v>
+        <v>586</v>
       </c>
       <c r="Q27" s="13">
-        <v>98</v>
+        <v>779</v>
       </c>
       <c r="R27" s="13">
-        <v>80</v>
+        <v>877</v>
       </c>
       <c r="S27" s="13">
-        <v>94</v>
+        <v>872</v>
       </c>
       <c r="T27" s="13">
-        <v>67</v>
+        <v>743</v>
       </c>
       <c r="U27" s="13">
-        <v>136</v>
+        <v>1067</v>
       </c>
       <c r="V27" s="14">
-        <v>103</v>
+        <v>859</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="15">
-        <v>638</v>
+        <v>6987</v>
       </c>
       <c r="D28" s="16">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E28" s="16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F28" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28" s="16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I28" s="16">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J28" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K28" s="16">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="L28" s="16">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M28" s="16">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N28" s="16">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="O28" s="16">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="P28" s="16">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="Q28" s="16">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="R28" s="16">
-        <v>33</v>
+        <v>523</v>
       </c>
       <c r="S28" s="16">
-        <v>64</v>
+        <v>713</v>
       </c>
       <c r="T28" s="16">
-        <v>79</v>
+        <v>823</v>
       </c>
       <c r="U28" s="16">
-        <v>167</v>
+        <v>1731</v>
       </c>
       <c r="V28" s="17">
-        <v>214</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" s="18">
         <v>2021</v>
       </c>
       <c r="C29" s="9">
-        <v>1718</v>
+        <v>17922</v>
       </c>
       <c r="D29" s="10">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="E29" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F29" s="10">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G29" s="10">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H29" s="10">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="I29" s="10">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="J29" s="10">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="K29" s="10">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="L29" s="10">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="M29" s="10">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="N29" s="10">
-        <v>36</v>
+        <v>404</v>
       </c>
       <c r="O29" s="10">
-        <v>60</v>
+        <v>609</v>
       </c>
       <c r="P29" s="10">
-        <v>108</v>
+        <v>1066</v>
       </c>
       <c r="Q29" s="10">
-        <v>139</v>
+        <v>1483</v>
       </c>
       <c r="R29" s="10">
-        <v>153</v>
+        <v>1864</v>
       </c>
       <c r="S29" s="10">
-        <v>190</v>
+        <v>2264</v>
       </c>
       <c r="T29" s="10">
-        <v>153</v>
+        <v>1946</v>
       </c>
       <c r="U29" s="10">
-        <v>376</v>
+        <v>3593</v>
       </c>
       <c r="V29" s="11">
-        <v>427</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="12">
-        <v>879</v>
+        <v>8590</v>
       </c>
       <c r="D30" s="13">
+        <v>68</v>
+      </c>
+      <c r="E30" s="13">
+        <v>11</v>
+      </c>
+      <c r="F30" s="13">
         <v>7</v>
       </c>
-      <c r="E30" s="13">
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
-        <v>1</v>
-      </c>
       <c r="G30" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H30" s="13">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I30" s="13">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J30" s="13">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="K30" s="13">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="L30" s="13">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="M30" s="13">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="N30" s="13">
-        <v>28</v>
+        <v>292</v>
       </c>
       <c r="O30" s="13">
-        <v>46</v>
+        <v>410</v>
       </c>
       <c r="P30" s="13">
-        <v>79</v>
+        <v>718</v>
       </c>
       <c r="Q30" s="13">
-        <v>93</v>
+        <v>939</v>
       </c>
       <c r="R30" s="13">
-        <v>90</v>
+        <v>1068</v>
       </c>
       <c r="S30" s="13">
-        <v>108</v>
+        <v>1197</v>
       </c>
       <c r="T30" s="13">
-        <v>76</v>
+        <v>910</v>
       </c>
       <c r="U30" s="13">
-        <v>152</v>
+        <v>1355</v>
       </c>
       <c r="V30" s="14">
-        <v>149</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="15">
-        <v>839</v>
+        <v>9332</v>
       </c>
       <c r="D31" s="16">
+        <v>48</v>
+      </c>
+      <c r="E31" s="16">
         <v>4</v>
       </c>
-      <c r="E31" s="16">
-        <v>1</v>
-      </c>
       <c r="F31" s="16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G31" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H31" s="16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I31" s="16">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J31" s="16">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K31" s="16">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="L31" s="16">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="M31" s="16">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="N31" s="16">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="O31" s="16">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="P31" s="16">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="Q31" s="16">
-        <v>46</v>
+        <v>544</v>
       </c>
       <c r="R31" s="16">
-        <v>63</v>
+        <v>796</v>
       </c>
       <c r="S31" s="16">
-        <v>82</v>
+        <v>1067</v>
       </c>
       <c r="T31" s="16">
-        <v>77</v>
+        <v>1036</v>
       </c>
       <c r="U31" s="16">
-        <v>224</v>
+        <v>2238</v>
       </c>
       <c r="V31" s="17">
-        <v>278</v>
+        <v>2730</v>
       </c>
     </row>
   </sheetData>
